--- a/data_structure.xlsx
+++ b/data_structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,7 +832,7 @@
       <c r="A2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -840,7 +840,7 @@
       <c r="A3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
     </row>
